--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Bundle Referral</t>
+    <t>長期照顧管理中心個案服務初篩表/轉介單文件打包</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長期照顧管理中心個案服務初篩表/轉介單
-本轉介單以臺北市長期照顧管理中心個案服務初篩表/轉介單為基礎，用以表述長期照顧管理中心個案服務初篩表/轉介單內容。
-請注意：各縣市轉介單格式可能有所不同，此 Profile 將於後續版本逐步納入各縣市初篩表/轉介單格式並進行整合。</t>
+    <t>此 Bundle 以臺北市長期照顧管理中心個案服務初篩表/轉介單為基礎，用以表述長期照顧管理中心個案服務初篩表/轉介單的文件打包結構。
+注意：各縣市轉介單格式可能有所不同，此 Profile 將於後續版本逐步納入各縣市初篩表/轉介單格式並進行整合。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3139,17 +3139,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.8828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3158,26 +3158,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.23828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -3139,17 +3139,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.8828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.7578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3158,26 +3158,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="58.125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleReferral.xlsx
+++ b/docs/StructureDefinition-LTCBundleReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2555,7 +2555,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore}
+    <t xml:space="preserve">Practitioner {http://ltc-ig.fhir.tw/StructureDefinition/LTCPractitioner}
 </t>
   </si>
   <si>
@@ -2673,11 +2673,11 @@
     <t>Bundle.entry:organization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore}
+    <t xml:space="preserve">Organization {http://ltc-ig.fhir.tw/StructureDefinition/Organization-twltc}
 </t>
   </si>
   <si>
-    <t>具有共同目的的一群人或機構</t>
+    <t>機構的資訊</t>
   </si>
   <si>
     <t>為實現某種形式的集體行動而形成的正式或非正式認可的一群人或機構的團體。包括公司、機構、企業、部門、社群團體、健康照護實務團體、付款人／保險公司等。</t>
